--- a/ProgettazioneLogica.xlsx
+++ b/ProgettazioneLogica.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/be5293dbacc73a7f/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UTENTE\Documents\GitHub\UniversityExamSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{1AB9CFE3-72A2-48E8-B04F-06E00CFF50AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D27409D2-93E5-4EAD-AE16-BF7D94D2272C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0487404B-2434-47D6-AEA8-67BED23EE56D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4400EEB-B0A3-4D9F-B2D7-D83492A2FF67}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="86">
   <si>
     <t>Nome Tabella</t>
   </si>
@@ -192,9 +192,6 @@
     <t>StatoEsito</t>
   </si>
   <si>
-    <t>{Ritirato, Rifiutato, In attesa}</t>
-  </si>
-  <si>
     <t>Stato</t>
   </si>
   <si>
@@ -210,15 +207,9 @@
     <t>AnnoFine</t>
   </si>
   <si>
-    <t>Essere_Stato_Parte</t>
-  </si>
-  <si>
     <t>Storico_Studente</t>
   </si>
   <si>
-    <t>Cognome</t>
-  </si>
-  <si>
     <t>Storico_Esame</t>
   </si>
   <si>
@@ -237,9 +228,6 @@
     <t>Iscrizione_Sessione</t>
   </si>
   <si>
-    <t>IDStudente</t>
-  </si>
-  <si>
     <t>Docente</t>
   </si>
   <si>
@@ -247,6 +235,54 @@
   </si>
   <si>
     <t>Elenco</t>
+  </si>
+  <si>
+    <t>Vincoli</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>NOTNULL</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>CodiceFiscale</t>
+  </si>
+  <si>
+    <t>Varchar(16)</t>
+  </si>
+  <si>
+    <t>NOTNULL, UNIQUE</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>In attesa</t>
+  </si>
+  <si>
+    <t>AnnoAttivazione</t>
+  </si>
+  <si>
+    <t>Luogo</t>
+  </si>
+  <si>
+    <t>{"Ritirato", "Rifiutato", "In attesa", "In attesa di accettazione",  "Bocciato"}</t>
+  </si>
+  <si>
+    <t>IDStorico</t>
+  </si>
+  <si>
+    <t>Composizione_Passata_Corso</t>
+  </si>
+  <si>
+    <t>{0, 1, .., 30}</t>
+  </si>
+  <si>
+    <t>DataRimozione</t>
   </si>
 </sst>
 </file>
@@ -282,8 +318,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -598,39 +637,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04060C60-EF6C-4596-9F62-E9316CAB0656}">
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:I87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="63" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -643,653 +689,844 @@
       <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>34</v>
       </c>
-      <c r="F4" t="s">
+      <c r="E4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" t="s">
         <v>30</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="s">
         <v>35</v>
       </c>
-      <c r="F5" t="s">
+      <c r="E5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5" t="s">
         <v>42</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H7" t="s">
         <v>54</v>
       </c>
-      <c r="G6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
         <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>14</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="E8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>19</v>
       </c>
-      <c r="B9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
         <v>20</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C12" t="s">
         <v>33</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>20</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B15" t="s">
         <v>20</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C15" t="s">
         <v>33</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B19" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C19" t="s">
         <v>35</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="E20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="E21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="E22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>40</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B32" t="s">
         <v>37</v>
       </c>
-      <c r="C23" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
+      <c r="C33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
         <v>41</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C34" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="E34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>46</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B36" t="s">
         <v>36</v>
       </c>
-      <c r="C26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
+      <c r="C36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
         <v>48</v>
       </c>
-      <c r="C27" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="C37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>49</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B39" t="s">
         <v>50</v>
       </c>
-      <c r="C28" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="C39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
-        <v>72</v>
-      </c>
-      <c r="C29" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
         <v>37</v>
       </c>
-      <c r="C30" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
+      <c r="C41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="E42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>52</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B44" t="s">
         <v>20</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C44" t="s">
         <v>33</v>
       </c>
-      <c r="D32" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
+      <c r="D44" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
         <v>50</v>
       </c>
-      <c r="C33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
+      <c r="C45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
         <v>53</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C46" t="s">
+        <v>53</v>
+      </c>
+      <c r="F46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" t="s">
+        <v>54</v>
+      </c>
+      <c r="F47" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" t="s">
+        <v>29</v>
+      </c>
+      <c r="F48" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>37</v>
+      </c>
+      <c r="C51" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" t="s">
+        <v>45</v>
+      </c>
+      <c r="E52" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>39</v>
+      </c>
+      <c r="C53" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
-        <v>56</v>
-      </c>
-      <c r="C35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
-        <v>57</v>
-      </c>
-      <c r="C36" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="E53" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
         <v>58</v>
-      </c>
-      <c r="B37" t="s">
-        <v>72</v>
-      </c>
-      <c r="C37" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B38" t="s">
-        <v>37</v>
-      </c>
-      <c r="C38" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B39" t="s">
-        <v>25</v>
-      </c>
-      <c r="C39" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B40" t="s">
-        <v>39</v>
-      </c>
-      <c r="C40" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B41" t="s">
-        <v>59</v>
-      </c>
-      <c r="C41" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B42" t="s">
-        <v>60</v>
-      </c>
-      <c r="C42" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>61</v>
-      </c>
-      <c r="B43" t="s">
-        <v>72</v>
-      </c>
-      <c r="C43" t="s">
-        <v>7</v>
-      </c>
-      <c r="D43" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B44" t="s">
-        <v>37</v>
-      </c>
-      <c r="C44" t="s">
-        <v>7</v>
-      </c>
-      <c r="D44" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B45" t="s">
-        <v>24</v>
-      </c>
-      <c r="C45" t="s">
-        <v>35</v>
-      </c>
-      <c r="D45" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>62</v>
-      </c>
-      <c r="B46" t="s">
-        <v>20</v>
-      </c>
-      <c r="C46" t="s">
-        <v>33</v>
-      </c>
-      <c r="D46" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B47" t="s">
-        <v>24</v>
-      </c>
-      <c r="C47" t="s">
-        <v>35</v>
-      </c>
-      <c r="D47" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B48" t="s">
-        <v>25</v>
-      </c>
-      <c r="C48" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B49" t="s">
-        <v>63</v>
-      </c>
-      <c r="C49" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>64</v>
-      </c>
-      <c r="B50" t="s">
-        <v>20</v>
-      </c>
-      <c r="C50" t="s">
-        <v>33</v>
-      </c>
-      <c r="D50" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B51" t="s">
-        <v>24</v>
-      </c>
-      <c r="C51" t="s">
-        <v>35</v>
-      </c>
-      <c r="D51" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B52" t="s">
-        <v>37</v>
-      </c>
-      <c r="C52" t="s">
-        <v>7</v>
-      </c>
-      <c r="D52" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B53" t="s">
-        <v>72</v>
-      </c>
-      <c r="C53" t="s">
-        <v>7</v>
-      </c>
-      <c r="D53" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B54" t="s">
-        <v>53</v>
       </c>
       <c r="C54" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E54" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C55" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B56" t="s">
-        <v>57</v>
-      </c>
-      <c r="C56" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="E55" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="B57" t="s">
+        <v>68</v>
+      </c>
+      <c r="C57" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>37</v>
+      </c>
+      <c r="C58" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>24</v>
+      </c>
+      <c r="C59" t="s">
+        <v>35</v>
+      </c>
+      <c r="D59" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
         <v>20</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C61" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B58" t="s">
-        <v>66</v>
-      </c>
-      <c r="C58" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B59" t="s">
-        <v>57</v>
-      </c>
-      <c r="C59" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B60" t="s">
-        <v>67</v>
-      </c>
-      <c r="C60" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>68</v>
-      </c>
-      <c r="B61" t="s">
-        <v>67</v>
-      </c>
-      <c r="C61" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D61" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>24</v>
       </c>
       <c r="C62" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D62" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="C63" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>69</v>
-      </c>
+      <c r="E63" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="C64" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B65" t="s">
+        <v>15</v>
+      </c>
+      <c r="E64" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>61</v>
+      </c>
+      <c r="B66" t="s">
+        <v>82</v>
+      </c>
+      <c r="C66" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
         <v>20</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C67" t="s">
         <v>33</v>
+      </c>
+      <c r="D67" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
+        <v>24</v>
+      </c>
+      <c r="C68" t="s">
+        <v>35</v>
+      </c>
+      <c r="D68" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
+        <v>37</v>
+      </c>
+      <c r="C69" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>68</v>
+      </c>
+      <c r="C70" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
+        <v>53</v>
+      </c>
+      <c r="C71" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B72" t="s">
+        <v>55</v>
+      </c>
+      <c r="C72" t="s">
+        <v>54</v>
+      </c>
+      <c r="E72" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
+        <v>56</v>
+      </c>
+      <c r="C73" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
+        <v>51</v>
+      </c>
+      <c r="C74" t="s">
+        <v>15</v>
+      </c>
+      <c r="E74" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>62</v>
+      </c>
+      <c r="B76" t="s">
+        <v>20</v>
+      </c>
+      <c r="C76" t="s">
+        <v>33</v>
+      </c>
+      <c r="D76" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
+        <v>64</v>
+      </c>
+      <c r="C77" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
+        <v>63</v>
+      </c>
+      <c r="C78" t="s">
+        <v>31</v>
+      </c>
+      <c r="E78" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
+        <v>56</v>
+      </c>
+      <c r="C79" t="s">
+        <v>29</v>
+      </c>
+      <c r="E79" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>65</v>
+      </c>
+      <c r="B81" t="s">
+        <v>64</v>
+      </c>
+      <c r="C81" t="s">
+        <v>7</v>
+      </c>
+      <c r="D81" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
+        <v>24</v>
+      </c>
+      <c r="C82" t="s">
+        <v>35</v>
+      </c>
+      <c r="D82" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
+        <v>51</v>
+      </c>
+      <c r="C83" t="s">
+        <v>15</v>
+      </c>
+      <c r="E83" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
+        <v>80</v>
+      </c>
+      <c r="C84" t="s">
+        <v>32</v>
+      </c>
+      <c r="E84" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>66</v>
+      </c>
+      <c r="B86" t="s">
+        <v>64</v>
+      </c>
+      <c r="C86" t="s">
+        <v>7</v>
+      </c>
+      <c r="D86" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B87" t="s">
+        <v>20</v>
+      </c>
+      <c r="C87" t="s">
+        <v>33</v>
+      </c>
+      <c r="D87" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/ProgettazioneLogica.xlsx
+++ b/ProgettazioneLogica.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UTENTE\Documents\GitHub\UniversityExamSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA658FF1-4109-4BFA-B88F-08AFA4C6B88F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F8826D-1D8F-472F-B97B-8E59424FAA3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4400EEB-B0A3-4D9F-B2D7-D83492A2FF67}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="92">
   <si>
     <t>Nome Tabella</t>
   </si>
@@ -291,7 +291,16 @@
     <t>sessione_laurea</t>
   </si>
   <si>
-    <t>varchar(500)</t>
+    <t>text</t>
+  </si>
+  <si>
+    <t>Condizione</t>
+  </si>
+  <si>
+    <t>value&gt;=0 AND value&lt;=30</t>
+  </si>
+  <si>
+    <t>value&gt;=60 AND value&lt;=110</t>
   </si>
 </sst>
 </file>
@@ -335,12 +344,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -655,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04060C60-EF6C-4596-9F62-E9316CAB0656}">
-  <dimension ref="A1:I86"/>
+  <dimension ref="A1:J86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -669,9 +677,10 @@
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="63" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -694,7 +703,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -713,8 +722,11 @@
       <c r="I2" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>34</v>
       </c>
@@ -730,8 +742,11 @@
       <c r="I3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>35</v>
       </c>
@@ -747,8 +762,11 @@
       <c r="I4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>36</v>
       </c>
@@ -764,8 +782,11 @@
       <c r="I5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>37</v>
       </c>
@@ -781,16 +802,22 @@
       <c r="I6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H7" t="s">
         <v>60</v>
       </c>
       <c r="I7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -809,8 +836,11 @@
       <c r="I8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>40</v>
       </c>
@@ -821,7 +851,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>41</v>
       </c>
@@ -832,7 +862,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -846,7 +876,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>46</v>
       </c>
@@ -857,7 +887,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>47</v>
       </c>
@@ -868,7 +898,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>46</v>
       </c>
@@ -919,7 +949,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="2" t="s">
+      <c r="B21" t="s">
         <v>72</v>
       </c>
       <c r="C21" t="s">
@@ -952,7 +982,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="2" t="s">
+      <c r="B24" t="s">
         <v>78</v>
       </c>
       <c r="C24" t="s">
@@ -994,7 +1024,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="2" t="s">
+      <c r="B28" t="s">
         <v>72</v>
       </c>
       <c r="C28" t="s">
@@ -1005,7 +1035,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="2" t="s">
+      <c r="B29" t="s">
         <v>75</v>
       </c>
       <c r="C29" t="s">
@@ -1013,7 +1043,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="2" t="s">
+      <c r="B30" t="s">
         <v>71</v>
       </c>
       <c r="C30" t="s">
@@ -1060,7 +1090,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B35" s="2" t="s">
+      <c r="B35" t="s">
         <v>73</v>
       </c>
       <c r="C35" t="s">
@@ -1132,7 +1162,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B43" s="2" t="s">
+      <c r="B43" t="s">
         <v>64</v>
       </c>
       <c r="E43" t="s">
@@ -1165,7 +1195,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B47" s="2" t="s">
+      <c r="B47" t="s">
         <v>61</v>
       </c>
       <c r="C47" t="s">
@@ -1176,7 +1206,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B48" s="2" t="s">
+      <c r="B48" t="s">
         <v>67</v>
       </c>
       <c r="C48" t="s">
@@ -1187,7 +1217,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B49" s="2" t="s">
+      <c r="B49" t="s">
         <v>65</v>
       </c>
       <c r="C49" t="s">
@@ -1223,7 +1253,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B53" s="2" t="s">
+      <c r="B53" t="s">
         <v>72</v>
       </c>
       <c r="C53" t="s">
@@ -1234,7 +1264,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B54" s="2" t="s">
+      <c r="B54" t="s">
         <v>71</v>
       </c>
       <c r="C54" t="s">
@@ -1408,7 +1438,7 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B72" s="2" t="s">
+      <c r="B72" t="s">
         <v>61</v>
       </c>
       <c r="C72" t="s">
@@ -1416,7 +1446,7 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B73" s="2" t="s">
+      <c r="B73" t="s">
         <v>67</v>
       </c>
       <c r="C73" t="s">
@@ -1427,7 +1457,7 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B74" s="2" t="s">
+      <c r="B74" t="s">
         <v>65</v>
       </c>
       <c r="C74" t="s">
@@ -1435,7 +1465,7 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B75" s="2" t="s">
+      <c r="B75" t="s">
         <v>64</v>
       </c>
       <c r="C75" t="s">
@@ -1460,7 +1490,7 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B78" s="2" t="s">
+      <c r="B78" t="s">
         <v>64</v>
       </c>
       <c r="C78" t="s">
@@ -1482,7 +1512,7 @@
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B80" s="2" t="s">
+      <c r="B80" t="s">
         <v>61</v>
       </c>
       <c r="C80" t="s">
@@ -1504,7 +1534,7 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B82" s="2" t="s">
+      <c r="B82" t="s">
         <v>65</v>
       </c>
       <c r="C82" t="s">
@@ -1518,7 +1548,7 @@
       <c r="A84" t="s">
         <v>87</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" t="s">
         <v>64</v>
       </c>
       <c r="C84" t="s">

--- a/ProgettazioneLogica.xlsx
+++ b/ProgettazioneLogica.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UTENTE\Documents\GitHub\UniversityExamSystem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\UniversityExamSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F8826D-1D8F-472F-B97B-8E59424FAA3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4400EEB-B0A3-4D9F-B2D7-D83492A2FF67}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="93">
   <si>
     <t>Nome Tabella</t>
   </si>
@@ -267,9 +266,6 @@
     <t>corso_laurea</t>
   </si>
   <si>
-    <t>manifesto_Insegnamenti</t>
-  </si>
-  <si>
     <t>esame</t>
   </si>
   <si>
@@ -301,12 +297,18 @@
   </si>
   <si>
     <t>value&gt;=60 AND value&lt;=110</t>
+  </si>
+  <si>
+    <t>cognome</t>
+  </si>
+  <si>
+    <t>manifesto_insegnamenti</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -662,25 +664,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04060C60-EF6C-4596-9F62-E9316CAB0656}">
-  <dimension ref="A1:J86"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="63" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -703,7 +705,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -723,10 +725,10 @@
         <v>18</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>34</v>
       </c>
@@ -746,9 +748,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
         <v>38</v>
@@ -766,12 +768,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
         <v>21</v>
@@ -786,15 +788,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H6" t="s">
         <v>61</v>
@@ -803,780 +805,802 @@
         <v>28</v>
       </c>
       <c r="J6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H7" t="s">
-        <v>60</v>
-      </c>
-      <c r="I7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>17</v>
       </c>
-      <c r="C8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" t="s">
-        <v>62</v>
-      </c>
-      <c r="I8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="C29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>92</v>
+      </c>
+      <c r="B35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
         <v>11</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C36" t="s">
         <v>39</v>
       </c>
-      <c r="D12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
+      <c r="D36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" t="s">
+        <v>50</v>
+      </c>
+      <c r="D40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" t="s">
+        <v>31</v>
+      </c>
+      <c r="D42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" t="s">
+        <v>50</v>
+      </c>
+      <c r="D43" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" t="s">
+        <v>50</v>
+      </c>
+      <c r="D44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>64</v>
+      </c>
+      <c r="E45" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>81</v>
+      </c>
+      <c r="B47" t="s">
         <v>46</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C47" t="s">
         <v>44</v>
       </c>
-      <c r="D13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="D47" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" t="s">
         <v>31</v>
       </c>
-      <c r="D18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>79</v>
-      </c>
-      <c r="B20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>76</v>
-      </c>
-      <c r="C22" t="s">
-        <v>59</v>
-      </c>
-      <c r="E22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C23" t="s">
-        <v>50</v>
-      </c>
-      <c r="E23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>78</v>
-      </c>
-      <c r="C24" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" t="s">
-        <v>21</v>
-      </c>
-      <c r="F24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" t="s">
-        <v>50</v>
-      </c>
-      <c r="D27" t="s">
-        <v>6</v>
-      </c>
-      <c r="F27" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" t="s">
-        <v>57</v>
-      </c>
-      <c r="E28" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
-        <v>75</v>
-      </c>
-      <c r="C29" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
-        <v>71</v>
-      </c>
-      <c r="C30" t="s">
-        <v>50</v>
-      </c>
-      <c r="E30" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
-        <v>74</v>
-      </c>
-      <c r="C31" t="s">
-        <v>50</v>
-      </c>
-      <c r="E31" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>80</v>
-      </c>
-      <c r="B33" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" t="s">
-        <v>50</v>
-      </c>
-      <c r="D33" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D34" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
-        <v>73</v>
-      </c>
-      <c r="C35" t="s">
-        <v>58</v>
-      </c>
-      <c r="E35" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>53</v>
-      </c>
-      <c r="B37" t="s">
-        <v>51</v>
-      </c>
-      <c r="C37" t="s">
-        <v>50</v>
-      </c>
-      <c r="D37" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B38" t="s">
-        <v>52</v>
-      </c>
-      <c r="C38" t="s">
-        <v>50</v>
-      </c>
-      <c r="D38" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>81</v>
-      </c>
-      <c r="B40" t="s">
-        <v>16</v>
-      </c>
-      <c r="C40" t="s">
-        <v>31</v>
-      </c>
-      <c r="D40" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B41" t="s">
-        <v>17</v>
-      </c>
-      <c r="C41" t="s">
-        <v>50</v>
-      </c>
-      <c r="D41" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B42" t="s">
-        <v>12</v>
-      </c>
-      <c r="C42" t="s">
-        <v>50</v>
-      </c>
-      <c r="D42" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
-        <v>64</v>
-      </c>
-      <c r="E43" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>82</v>
-      </c>
-      <c r="B45" t="s">
-        <v>46</v>
-      </c>
-      <c r="C45" t="s">
-        <v>44</v>
-      </c>
-      <c r="D45" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B46" t="s">
-        <v>16</v>
-      </c>
-      <c r="C46" t="s">
-        <v>31</v>
-      </c>
-      <c r="D46" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B47" t="s">
+      <c r="D48" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
         <v>61</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C49" t="s">
         <v>61</v>
-      </c>
-      <c r="F47" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B48" t="s">
-        <v>67</v>
-      </c>
-      <c r="C48" t="s">
-        <v>60</v>
-      </c>
-      <c r="F48" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B49" t="s">
-        <v>65</v>
-      </c>
-      <c r="C49" t="s">
-        <v>56</v>
       </c>
       <c r="F49" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>67</v>
+      </c>
+      <c r="C50" t="s">
+        <v>60</v>
+      </c>
+      <c r="F50" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>65</v>
+      </c>
+      <c r="C51" t="s">
+        <v>56</v>
+      </c>
+      <c r="F51" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>82</v>
+      </c>
+      <c r="B53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53" t="s">
+        <v>50</v>
+      </c>
+      <c r="D53" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" t="s">
+        <v>50</v>
+      </c>
+      <c r="D54" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>72</v>
+      </c>
+      <c r="C55" t="s">
+        <v>57</v>
+      </c>
+      <c r="E55" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>71</v>
+      </c>
+      <c r="C56" t="s">
+        <v>50</v>
+      </c>
+      <c r="E56" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>70</v>
+      </c>
+      <c r="C57" t="s">
+        <v>50</v>
+      </c>
+      <c r="E57" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>69</v>
+      </c>
+      <c r="C58" t="s">
+        <v>50</v>
+      </c>
+      <c r="E58" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>30</v>
+      </c>
+      <c r="B60" t="s">
+        <v>17</v>
+      </c>
+      <c r="C60" t="s">
+        <v>50</v>
+      </c>
+      <c r="D60" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" t="s">
+        <v>50</v>
+      </c>
+      <c r="D61" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" t="s">
+        <v>39</v>
+      </c>
+      <c r="D62" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>83</v>
       </c>
-      <c r="B51" t="s">
-        <v>17</v>
-      </c>
-      <c r="C51" t="s">
-        <v>50</v>
-      </c>
-      <c r="D51" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B52" t="s">
-        <v>12</v>
-      </c>
-      <c r="C52" t="s">
-        <v>50</v>
-      </c>
-      <c r="D52" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B53" t="s">
-        <v>72</v>
-      </c>
-      <c r="C53" t="s">
-        <v>57</v>
-      </c>
-      <c r="E53" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B54" t="s">
-        <v>71</v>
-      </c>
-      <c r="C54" t="s">
-        <v>50</v>
-      </c>
-      <c r="E54" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B55" t="s">
-        <v>70</v>
-      </c>
-      <c r="C55" t="s">
-        <v>50</v>
-      </c>
-      <c r="E55" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B56" t="s">
-        <v>69</v>
-      </c>
-      <c r="C56" t="s">
-        <v>50</v>
-      </c>
-      <c r="E56" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>30</v>
-      </c>
-      <c r="B58" t="s">
-        <v>17</v>
-      </c>
-      <c r="C58" t="s">
-        <v>50</v>
-      </c>
-      <c r="D58" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B59" t="s">
-        <v>12</v>
-      </c>
-      <c r="C59" t="s">
-        <v>50</v>
-      </c>
-      <c r="D59" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B60" t="s">
+      <c r="B64" t="s">
+        <v>46</v>
+      </c>
+      <c r="C64" t="s">
+        <v>44</v>
+      </c>
+      <c r="D64" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
         <v>11</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C65" t="s">
         <v>39</v>
       </c>
-      <c r="D60" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+      <c r="D65" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>47</v>
+      </c>
+      <c r="C66" t="s">
+        <v>43</v>
+      </c>
+      <c r="E66" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>68</v>
+      </c>
+      <c r="C67" t="s">
+        <v>43</v>
+      </c>
+      <c r="E67" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>84</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B69" t="s">
+        <v>27</v>
+      </c>
+      <c r="C69" t="s">
+        <v>31</v>
+      </c>
+      <c r="D69" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
         <v>46</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C70" t="s">
         <v>44</v>
-      </c>
-      <c r="D62" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B63" t="s">
-        <v>11</v>
-      </c>
-      <c r="C63" t="s">
-        <v>39</v>
-      </c>
-      <c r="D63" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B64" t="s">
-        <v>47</v>
-      </c>
-      <c r="C64" t="s">
-        <v>43</v>
-      </c>
-      <c r="E64" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B65" t="s">
-        <v>68</v>
-      </c>
-      <c r="C65" t="s">
-        <v>43</v>
-      </c>
-      <c r="E65" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>85</v>
-      </c>
-      <c r="B67" t="s">
-        <v>27</v>
-      </c>
-      <c r="C67" t="s">
-        <v>31</v>
-      </c>
-      <c r="D67" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B68" t="s">
-        <v>46</v>
-      </c>
-      <c r="C68" t="s">
-        <v>44</v>
-      </c>
-      <c r="D68" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B69" t="s">
-        <v>11</v>
-      </c>
-      <c r="C69" t="s">
-        <v>39</v>
-      </c>
-      <c r="D69" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B70" t="s">
-        <v>12</v>
-      </c>
-      <c r="C70" t="s">
-        <v>31</v>
       </c>
       <c r="D70" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C71" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D71" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
+        <v>12</v>
+      </c>
+      <c r="C72" t="s">
+        <v>31</v>
+      </c>
+      <c r="D72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>17</v>
+      </c>
+      <c r="C73" t="s">
+        <v>31</v>
+      </c>
+      <c r="D73" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
         <v>61</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C74" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B73" t="s">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
         <v>67</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C75" t="s">
         <v>60</v>
       </c>
-      <c r="E73" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B74" t="s">
+      <c r="E75" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
         <v>65</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C76" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B75" t="s">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
         <v>64</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C77" t="s">
         <v>43</v>
       </c>
-      <c r="E75" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
+      <c r="E77" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>85</v>
+      </c>
+      <c r="B79" t="s">
+        <v>46</v>
+      </c>
+      <c r="C79" t="s">
+        <v>44</v>
+      </c>
+      <c r="D79" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>64</v>
+      </c>
+      <c r="C80" t="s">
+        <v>43</v>
+      </c>
+      <c r="D80" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>11</v>
+      </c>
+      <c r="C81" t="s">
+        <v>39</v>
+      </c>
+      <c r="D81" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>61</v>
+      </c>
+      <c r="C82" t="s">
+        <v>62</v>
+      </c>
+      <c r="E82" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>66</v>
+      </c>
+      <c r="C83" t="s">
+        <v>61</v>
+      </c>
+      <c r="E83" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>65</v>
+      </c>
+      <c r="C84" t="s">
+        <v>56</v>
+      </c>
+      <c r="F84" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>86</v>
       </c>
-      <c r="B77" t="s">
-        <v>46</v>
-      </c>
-      <c r="C77" t="s">
-        <v>44</v>
-      </c>
-      <c r="D77" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B78" t="s">
+      <c r="B86" t="s">
         <v>64</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C86" t="s">
         <v>43</v>
       </c>
-      <c r="D78" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B79" t="s">
+      <c r="D86" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
         <v>11</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C87" t="s">
         <v>39</v>
       </c>
-      <c r="D79" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B80" t="s">
-        <v>61</v>
-      </c>
-      <c r="C80" t="s">
-        <v>62</v>
-      </c>
-      <c r="E80" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B81" t="s">
-        <v>66</v>
-      </c>
-      <c r="C81" t="s">
-        <v>61</v>
-      </c>
-      <c r="E81" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B82" t="s">
-        <v>65</v>
-      </c>
-      <c r="C82" t="s">
-        <v>56</v>
-      </c>
-      <c r="F82" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>87</v>
-      </c>
-      <c r="B84" t="s">
-        <v>64</v>
-      </c>
-      <c r="C84" t="s">
-        <v>43</v>
-      </c>
-      <c r="D84" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B85" t="s">
-        <v>11</v>
-      </c>
-      <c r="C85" t="s">
-        <v>39</v>
-      </c>
-      <c r="D85" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B86" t="s">
+      <c r="D87" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
         <v>63</v>
       </c>
-      <c r="C86" t="s">
-        <v>50</v>
-      </c>
-      <c r="E86" t="s">
+      <c r="C88" t="s">
+        <v>50</v>
+      </c>
+      <c r="E88" t="s">
         <v>21</v>
       </c>
     </row>

--- a/ProgettazioneLogica.xlsx
+++ b/ProgettazioneLogica.xlsx
@@ -667,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:F88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -846,7 +846,7 @@
         <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
         <v>50</v>

--- a/ProgettazioneLogica.xlsx
+++ b/ProgettazioneLogica.xlsx
@@ -667,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:F88"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -846,7 +846,7 @@
         <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
         <v>50</v>

--- a/ProgettazioneLogica.xlsx
+++ b/ProgettazioneLogica.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\UniversityExamSystem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UTENTE\Documents\GitHub\UniversityExamSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{871CC0E2-D3C8-4C58-A992-4B0C42F8F190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -308,7 +309,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -664,25 +665,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="63" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,7 +706,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -728,7 +729,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>34</v>
       </c>
@@ -748,7 +749,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>72</v>
       </c>
@@ -768,7 +769,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>91</v>
       </c>
@@ -788,12 +789,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="E6" t="s">
         <v>23</v>
@@ -808,7 +809,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>36</v>
       </c>
@@ -819,7 +820,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>37</v>
       </c>
@@ -830,7 +831,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H9" t="s">
         <v>60</v>
       </c>
@@ -841,7 +842,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -864,7 +865,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>40</v>
       </c>
@@ -875,7 +876,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>41</v>
       </c>
@@ -886,7 +887,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -900,7 +901,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>46</v>
       </c>
@@ -911,7 +912,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>47</v>
       </c>
@@ -922,7 +923,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -936,7 +937,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>49</v>
       </c>
@@ -947,7 +948,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>4</v>
       </c>
@@ -958,7 +959,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>79</v>
       </c>
@@ -972,7 +973,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>72</v>
       </c>
@@ -983,7 +984,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>76</v>
       </c>
@@ -994,7 +995,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>77</v>
       </c>
@@ -1005,7 +1006,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>78</v>
       </c>
@@ -1019,7 +1020,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>51</v>
       </c>
@@ -1033,7 +1034,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>17</v>
       </c>
@@ -1047,7 +1048,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>72</v>
       </c>
@@ -1058,7 +1059,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>75</v>
       </c>
@@ -1066,7 +1067,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>71</v>
       </c>
@@ -1077,7 +1078,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>74</v>
       </c>
@@ -1088,7 +1089,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>92</v>
       </c>
@@ -1102,7 +1103,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>11</v>
       </c>
@@ -1113,7 +1114,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>73</v>
       </c>
@@ -1124,7 +1125,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>53</v>
       </c>
@@ -1138,7 +1139,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>52</v>
       </c>
@@ -1149,7 +1150,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>80</v>
       </c>
@@ -1163,7 +1164,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>17</v>
       </c>
@@ -1174,7 +1175,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>12</v>
       </c>
@@ -1185,7 +1186,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>64</v>
       </c>
@@ -1193,7 +1194,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>81</v>
       </c>
@@ -1207,7 +1208,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>16</v>
       </c>
@@ -1218,7 +1219,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>61</v>
       </c>
@@ -1229,7 +1230,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>67</v>
       </c>
@@ -1240,7 +1241,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>65</v>
       </c>
@@ -1251,7 +1252,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>82</v>
       </c>
@@ -1265,7 +1266,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>12</v>
       </c>
@@ -1276,7 +1277,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>72</v>
       </c>
@@ -1287,7 +1288,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>71</v>
       </c>
@@ -1298,7 +1299,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>70</v>
       </c>
@@ -1309,7 +1310,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>69</v>
       </c>
@@ -1320,7 +1321,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>30</v>
       </c>
@@ -1334,7 +1335,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>12</v>
       </c>
@@ -1345,7 +1346,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>11</v>
       </c>
@@ -1356,7 +1357,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>83</v>
       </c>
@@ -1370,7 +1371,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>11</v>
       </c>
@@ -1381,7 +1382,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>47</v>
       </c>
@@ -1392,7 +1393,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>68</v>
       </c>
@@ -1403,7 +1404,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>84</v>
       </c>
@@ -1417,7 +1418,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
         <v>46</v>
       </c>
@@ -1428,7 +1429,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
         <v>11</v>
       </c>
@@ -1439,7 +1440,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
         <v>12</v>
       </c>
@@ -1450,7 +1451,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
         <v>17</v>
       </c>
@@ -1461,7 +1462,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
         <v>61</v>
       </c>
@@ -1469,7 +1470,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
         <v>67</v>
       </c>
@@ -1480,7 +1481,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
         <v>65</v>
       </c>
@@ -1488,7 +1489,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
         <v>64</v>
       </c>
@@ -1499,7 +1500,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>85</v>
       </c>
@@ -1513,7 +1514,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
         <v>64</v>
       </c>
@@ -1524,7 +1525,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
         <v>11</v>
       </c>
@@ -1535,7 +1536,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
         <v>61</v>
       </c>
@@ -1546,7 +1547,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
         <v>66</v>
       </c>
@@ -1557,7 +1558,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
         <v>65</v>
       </c>
@@ -1568,7 +1569,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>86</v>
       </c>
@@ -1582,7 +1583,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
         <v>11</v>
       </c>
@@ -1593,7 +1594,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
         <v>63</v>
       </c>

--- a/ProgettazioneLogica.xlsx
+++ b/ProgettazioneLogica.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UTENTE\Documents\GitHub\UniversityExamSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{871CC0E2-D3C8-4C58-A992-4B0C42F8F190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1914922-4A29-44F7-A23D-60F3A7A03AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="864" yWindow="12" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="95">
   <si>
     <t>Nome Tabella</t>
   </si>
@@ -304,6 +304,12 @@
   </si>
   <si>
     <t>manifesto_insegnamenti</t>
+  </si>
+  <si>
+    <t>CURRENT_DATE</t>
+  </si>
+  <si>
+    <t>UNIQUE</t>
   </si>
 </sst>
 </file>
@@ -668,8 +674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -911,6 +917,9 @@
       <c r="D15" t="s">
         <v>15</v>
       </c>
+      <c r="E15" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
@@ -922,6 +931,9 @@
       <c r="E16" t="s">
         <v>21</v>
       </c>
+      <c r="F16" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -953,10 +965,13 @@
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="D20" t="s">
         <v>6</v>
+      </c>
+      <c r="E20" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1174,6 +1189,9 @@
       <c r="D43" t="s">
         <v>6</v>
       </c>
+      <c r="E43" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
@@ -1185,6 +1203,9 @@
       <c r="D44" t="s">
         <v>6</v>
       </c>
+      <c r="E44" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
@@ -1371,7 +1392,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>11</v>
       </c>
@@ -1382,7 +1403,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>47</v>
       </c>
@@ -1393,7 +1414,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>68</v>
       </c>
@@ -1403,8 +1424,11 @@
       <c r="E67" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F67" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>84</v>
       </c>
@@ -1418,7 +1442,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
         <v>46</v>
       </c>
@@ -1428,8 +1452,11 @@
       <c r="D70" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E70" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
         <v>11</v>
       </c>
@@ -1439,8 +1466,11 @@
       <c r="D71" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E71" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
         <v>12</v>
       </c>
@@ -1450,8 +1480,11 @@
       <c r="D72" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E72" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
         <v>17</v>
       </c>
@@ -1461,8 +1494,11 @@
       <c r="D73" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E73" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
         <v>61</v>
       </c>
@@ -1470,7 +1506,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
         <v>67</v>
       </c>
@@ -1481,7 +1517,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
         <v>65</v>
       </c>
@@ -1489,7 +1525,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
         <v>64</v>
       </c>
@@ -1500,7 +1536,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>85</v>
       </c>
@@ -1514,7 +1550,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
         <v>64</v>
       </c>

--- a/ProgettazioneLogica.xlsx
+++ b/ProgettazioneLogica.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UTENTE\Documents\GitHub\UniversityExamSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1914922-4A29-44F7-A23D-60F3A7A03AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E12929A-8FAE-4C1D-AF9F-A35D6AD25C0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="864" yWindow="12" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="95">
   <si>
     <t>Nome Tabella</t>
   </si>
@@ -674,8 +674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1211,6 +1211,9 @@
       <c r="B45" t="s">
         <v>64</v>
       </c>
+      <c r="C45" t="s">
+        <v>43</v>
+      </c>
       <c r="E45" t="s">
         <v>21</v>
       </c>
@@ -1234,7 +1237,7 @@
         <v>16</v>
       </c>
       <c r="C48" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="D48" t="s">
         <v>15</v>
@@ -1295,7 +1298,7 @@
         <v>50</v>
       </c>
       <c r="D54" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -1475,7 +1478,7 @@
         <v>12</v>
       </c>
       <c r="C72" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="D72" t="s">
         <v>6</v>
@@ -1489,7 +1492,7 @@
         <v>17</v>
       </c>
       <c r="C73" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="D73" t="s">
         <v>6</v>
@@ -1579,8 +1582,8 @@
       <c r="C82" t="s">
         <v>62</v>
       </c>
-      <c r="E82" t="s">
-        <v>21</v>
+      <c r="F82" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -1590,8 +1593,8 @@
       <c r="C83" t="s">
         <v>61</v>
       </c>
-      <c r="E83" t="s">
-        <v>21</v>
+      <c r="F83" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">

--- a/ProgettazioneLogica.xlsx
+++ b/ProgettazioneLogica.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UTENTE\Documents\GitHub\UniversityExamSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E12929A-8FAE-4C1D-AF9F-A35D6AD25C0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5238AF1-4C24-4297-B748-3A6BA06C9BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="96">
   <si>
     <t>Nome Tabella</t>
   </si>
@@ -310,6 +310,9 @@
   </si>
   <si>
     <t>UNIQUE</t>
+  </si>
+  <si>
+    <t>char(6)</t>
   </si>
 </sst>
 </file>
@@ -674,8 +677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -912,7 +915,7 @@
         <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="D15" t="s">
         <v>15</v>
@@ -1226,7 +1229,7 @@
         <v>46</v>
       </c>
       <c r="C47" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="D47" t="s">
         <v>15</v>
@@ -1389,7 +1392,7 @@
         <v>46</v>
       </c>
       <c r="C64" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="D64" t="s">
         <v>15</v>
@@ -1450,7 +1453,7 @@
         <v>46</v>
       </c>
       <c r="C70" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="D70" t="s">
         <v>6</v>
@@ -1547,7 +1550,7 @@
         <v>46</v>
       </c>
       <c r="C79" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="D79" t="s">
         <v>15</v>

--- a/ProgettazioneLogica.xlsx
+++ b/ProgettazioneLogica.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UTENTE\Documents\GitHub\UniversityExamSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5238AF1-4C24-4297-B748-3A6BA06C9BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF40C4CE-AE52-4E9B-9449-F5FB65957A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -225,9 +225,6 @@
     <t>lode</t>
   </si>
   <si>
-    <t>votoProva</t>
-  </si>
-  <si>
     <t>stato</t>
   </si>
   <si>
@@ -313,6 +310,9 @@
   </si>
   <si>
     <t>char(6)</t>
+  </si>
+  <si>
+    <t>incrementoVoto</t>
   </si>
 </sst>
 </file>
@@ -677,8 +677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -735,7 +735,7 @@
         <v>18</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -760,7 +760,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
         <v>38</v>
@@ -780,7 +780,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C5" t="s">
         <v>38</v>
@@ -815,7 +815,7 @@
         <v>28</v>
       </c>
       <c r="J6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -871,7 +871,7 @@
         <v>32</v>
       </c>
       <c r="J10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -915,13 +915,13 @@
         <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D15" t="s">
         <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -935,7 +935,7 @@
         <v>21</v>
       </c>
       <c r="F16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -979,7 +979,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B22" t="s">
         <v>11</v>
@@ -993,7 +993,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C23" t="s">
         <v>55</v>
@@ -1004,7 +1004,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C24" t="s">
         <v>59</v>
@@ -1015,7 +1015,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C25" t="s">
         <v>50</v>
@@ -1026,7 +1026,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C26" t="s">
         <v>56</v>
@@ -1068,7 +1068,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C30" t="s">
         <v>57</v>
@@ -1079,15 +1079,15 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C32" t="s">
         <v>50</v>
@@ -1098,7 +1098,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C33" t="s">
         <v>50</v>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B35" t="s">
         <v>12</v>
@@ -1134,7 +1134,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C37" t="s">
         <v>58</v>
@@ -1170,7 +1170,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B42" t="s">
         <v>16</v>
@@ -1223,13 +1223,13 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B47" t="s">
         <v>46</v>
       </c>
       <c r="C47" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D47" t="s">
         <v>15</v>
@@ -1259,7 +1259,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C50" t="s">
         <v>60</v>
@@ -1281,7 +1281,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B53" t="s">
         <v>17</v>
@@ -1306,7 +1306,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C55" t="s">
         <v>57</v>
@@ -1317,7 +1317,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C56" t="s">
         <v>50</v>
@@ -1328,7 +1328,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C57" t="s">
         <v>50</v>
@@ -1339,7 +1339,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C58" t="s">
         <v>50</v>
@@ -1386,13 +1386,13 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B64" t="s">
         <v>46</v>
       </c>
       <c r="C64" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D64" t="s">
         <v>15</v>
@@ -1422,7 +1422,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C67" t="s">
         <v>43</v>
@@ -1431,12 +1431,12 @@
         <v>21</v>
       </c>
       <c r="F67" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B69" t="s">
         <v>27</v>
@@ -1453,7 +1453,7 @@
         <v>46</v>
       </c>
       <c r="C70" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D70" t="s">
         <v>6</v>
@@ -1514,7 +1514,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C75" t="s">
         <v>60</v>
@@ -1544,13 +1544,13 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B79" t="s">
         <v>46</v>
       </c>
       <c r="C79" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D79" t="s">
         <v>15</v>
@@ -1591,10 +1591,10 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="C83" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="F83" t="s">
         <v>22</v>
@@ -1613,7 +1613,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B86" t="s">
         <v>64</v>
